--- a/合肥八中心烛志愿者协会会员名单及活动记录总表.xlsx
+++ b/合肥八中心烛志愿者协会会员名单及活动记录总表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\77\Documents\GitHub\HFBZVolunteer.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9876"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016级" sheetId="1" r:id="rId1"/>
@@ -402,8 +407,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,38 +483,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,12 +501,50 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -821,21 +837,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -850,135 +866,135 @@
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="25.8">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:22" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:22" ht="17.399999999999999">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="13" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.6">
-      <c r="A5" s="4" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
         <v>88</v>
       </c>
@@ -994,19 +1010,19 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15.6">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1018,19 +1034,19 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15.6">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1042,19 +1058,19 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15.6">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1" t="s">
         <v>88</v>
       </c>
@@ -1070,19 +1086,19 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15.6">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1" t="s">
         <v>88</v>
       </c>
@@ -1098,19 +1114,19 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15.6">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1122,19 +1138,19 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15.6">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
@@ -1152,19 +1168,19 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15.6">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1" t="s">
         <v>88</v>
       </c>
@@ -1184,19 +1200,19 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15.6">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
@@ -1210,19 +1226,19 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15.6">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>88</v>
@@ -1238,19 +1254,19 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15.6">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
@@ -1264,19 +1280,19 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15.6">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1288,19 +1304,19 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1" t="s">
         <v>88</v>
       </c>
@@ -1316,19 +1332,19 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15.6">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1340,19 +1356,19 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15.6">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1364,19 +1380,19 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15.6">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1388,19 +1404,19 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15.6">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1412,19 +1428,19 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15.6">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1436,19 +1452,19 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15.6">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="1" t="s">
         <v>88</v>
       </c>
@@ -1464,19 +1480,19 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15.6">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="1" t="s">
         <v>88</v>
       </c>
@@ -1492,19 +1508,19 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15.6">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1516,19 +1532,19 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15.6">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1540,19 +1556,19 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15.6">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1564,19 +1580,19 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15.6">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1588,19 +1604,19 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15.6">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1612,19 +1628,19 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15.6">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1636,19 +1652,19 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15.6">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1660,19 +1676,19 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15.6">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="1" t="s">
         <v>88</v>
       </c>
@@ -1688,19 +1704,19 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="15.6">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1712,19 +1728,19 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="15.6">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1736,19 +1752,19 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="15.6">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1760,19 +1776,19 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="15.6">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1784,19 +1800,19 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="15.6">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1808,19 +1824,19 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="15.6">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1832,7 +1848,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="15.6">
+    <row r="39" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1856,29 +1872,29 @@
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
     </row>
-    <row r="40" spans="1:22" ht="15.6">
+    <row r="40" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="7">
         <v>2016.11</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K40" s="1"/>
@@ -1888,25 +1904,25 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="15.6">
+    <row r="41" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16" t="s">
+      <c r="H41" s="7"/>
+      <c r="I41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="7" t="s">
         <v>95</v>
       </c>
       <c r="K41" s="1"/>
@@ -1916,15 +1932,15 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="15.6">
+    <row r="42" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1936,15 +1952,15 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="15.6">
+    <row r="43" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1956,15 +1972,15 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="15.6">
+    <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="14"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1976,13 +1992,13 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="15.6">
+    <row r="45" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1994,13 +2010,13 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="15.6">
+    <row r="46" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2012,22 +2028,30 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="3"/>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="F2:V2"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="U3:U4"/>
@@ -2038,12 +2062,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
